--- a/charts/counts.xlsx
+++ b/charts/counts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrush/Development/tokenomics.io/charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8250E557-3E7C-9441-9B88-854775E42C01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00392ABB-525A-514D-818D-378AB3861BEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="38420" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2070,7 +2070,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> per Round</a:t>
+              <a:t> per 1,000 Blocks</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -18731,7 +18731,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
